--- a/read/第11组项目工作计划表.xlsx
+++ b/read/第11组项目工作计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <r>
       <rPr>
@@ -384,204 +384,31 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
+    <t>行政管理模块</t>
+  </si>
+  <si>
+    <t>门店管理</t>
+  </si>
+  <si>
+    <t>袁伟良</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>安全管理模块</t>
+  </si>
+  <si>
+    <t>登录功能</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>办公管理模块</t>
+  </si>
+  <si>
+    <t>个人信息管理</t>
   </si>
 </sst>
 </file>
@@ -589,11 +416,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -622,12 +449,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -641,7 +462,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,21 +496,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,13 +516,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,47 +525,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,9 +538,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,22 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -796,6 +576,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -808,7 +635,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,37 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,19 +692,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,79 +794,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,6 +859,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1044,33 +901,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1082,21 +912,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,6 +933,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1126,149 +950,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,7 +1139,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1318,13 +1151,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1342,6 +1175,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1908,25 +1757,25 @@
   <sheetPr/>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7416666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.7416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7407407407407" customWidth="1"/>
+    <col min="2" max="2" width="17.7407407407407" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="7" width="4" customWidth="1"/>
-    <col min="8" max="16" width="2.88333333333333" customWidth="1"/>
+    <col min="8" max="16" width="2.87962962962963" customWidth="1"/>
     <col min="17" max="33" width="4" customWidth="1"/>
-    <col min="34" max="34" width="4.84166666666667" customWidth="1"/>
-    <col min="35" max="35" width="4.96666666666667" customWidth="1"/>
-    <col min="36" max="36" width="4.84166666666667" customWidth="1"/>
+    <col min="34" max="34" width="4.84259259259259" customWidth="1"/>
+    <col min="35" max="35" width="4.96296296296296" customWidth="1"/>
+    <col min="36" max="36" width="4.84259259259259" customWidth="1"/>
     <col min="37" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:33">
+    <row r="1" ht="30.6" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1812,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:36">
+    <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:36">
+    <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +1966,7 @@
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" ht="14.25" spans="2:36">
+    <row r="4" spans="2:36">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2154,7 +2003,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" ht="14.25" spans="2:36">
+    <row r="5" spans="2:36">
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
@@ -2193,7 +2042,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" ht="14.25" spans="2:36">
+    <row r="6" spans="2:36">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
@@ -2230,7 +2079,7 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" ht="14.25" spans="2:36">
+    <row r="7" spans="2:36">
       <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
@@ -2269,7 +2118,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" ht="14.25" spans="2:36">
+    <row r="8" spans="2:36">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -2306,7 +2155,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" ht="14.25" spans="1:36">
+    <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -2348,7 +2197,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" ht="14.25" spans="2:36">
+    <row r="10" spans="2:36">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -2385,7 +2234,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" ht="14.25" spans="1:36">
+    <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -2427,7 +2276,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" ht="14.25" spans="2:36">
+    <row r="12" spans="2:36">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -2464,7 +2313,7 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" ht="14.25" spans="1:36">
+    <row r="13" spans="1:36">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -2506,7 +2355,7 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" ht="14.25" spans="2:36">
+    <row r="14" spans="2:36">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -2543,7 +2392,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" ht="14.25" spans="2:36">
+    <row r="15" spans="2:36">
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
@@ -2582,7 +2431,7 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" ht="14.25" spans="2:36">
+    <row r="16" spans="2:36">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -2619,7 +2468,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" ht="14.25" spans="1:36">
+    <row r="17" spans="1:36">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -2661,7 +2510,7 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" ht="14.25" spans="1:36">
+    <row r="18" spans="1:36">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2699,7 +2548,7 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" ht="14.25" spans="1:36">
+    <row r="19" spans="1:36">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>51</v>
@@ -2739,7 +2588,7 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" ht="14.25" spans="1:36">
+    <row r="20" spans="1:36">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2777,7 +2626,7 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
     </row>
-    <row r="21" ht="14.25" spans="1:36">
+    <row r="21" spans="1:36">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>52</v>
@@ -2817,7 +2666,7 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
     </row>
-    <row r="22" ht="14.25" spans="1:36">
+    <row r="22" spans="1:36">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2855,7 +2704,7 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
     </row>
-    <row r="25" ht="14.25" spans="1:36">
+    <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -2965,7 +2814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:36">
+    <row r="26" spans="1:36">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -3009,7 +2858,7 @@
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
     </row>
-    <row r="27" ht="14.25" spans="2:36">
+    <row r="27" spans="2:36">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -3046,7 +2895,7 @@
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
     </row>
-    <row r="28" ht="14.25" spans="2:36">
+    <row r="28" spans="2:36">
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
@@ -3085,7 +2934,7 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
     </row>
-    <row r="29" ht="14.25" spans="2:36">
+    <row r="29" spans="2:36">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -3122,7 +2971,7 @@
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
     </row>
-    <row r="30" ht="14.25" spans="2:36">
+    <row r="30" spans="2:36">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
@@ -3161,7 +3010,7 @@
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
     </row>
-    <row r="31" ht="14.25" spans="2:36">
+    <row r="31" spans="2:36">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -3198,7 +3047,7 @@
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
     </row>
-    <row r="32" ht="14.25" spans="2:36">
+    <row r="32" spans="2:36">
       <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
@@ -3237,7 +3086,7 @@
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
     </row>
-    <row r="33" ht="14.25" spans="2:36">
+    <row r="33" spans="2:36">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -3274,7 +3123,7 @@
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7"/>
     </row>
-    <row r="34" ht="14.25" spans="2:36">
+    <row r="34" spans="2:36">
       <c r="B34" s="5" t="s">
         <v>60</v>
       </c>
@@ -3313,7 +3162,7 @@
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
     </row>
-    <row r="35" ht="14.25" spans="2:36">
+    <row r="35" spans="2:36">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -3350,7 +3199,7 @@
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
     </row>
-    <row r="36" ht="14.25" spans="1:36">
+    <row r="36" spans="1:36">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -3392,7 +3241,7 @@
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
     </row>
-    <row r="37" ht="14.25" spans="2:36">
+    <row r="37" spans="2:36">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -3429,7 +3278,7 @@
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
     </row>
-    <row r="38" ht="14.25" spans="2:36">
+    <row r="38" spans="2:36">
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
@@ -3468,7 +3317,7 @@
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7"/>
     </row>
-    <row r="39" ht="14.25" spans="2:36">
+    <row r="39" spans="2:36">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -3505,7 +3354,7 @@
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
     </row>
-    <row r="40" ht="14.25" spans="2:36">
+    <row r="40" spans="2:36">
       <c r="B40" s="5" t="s">
         <v>64</v>
       </c>
@@ -3544,7 +3393,7 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
     </row>
-    <row r="41" ht="14.25" spans="1:36">
+    <row r="41" spans="1:36">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3582,7 +3431,7 @@
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
     </row>
-    <row r="42" ht="14.25" spans="2:36">
+    <row r="42" spans="2:36">
       <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
@@ -3621,7 +3470,7 @@
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
     </row>
-    <row r="43" ht="14.25" spans="2:36">
+    <row r="43" spans="2:36">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -3658,7 +3507,7 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
     </row>
-    <row r="44" ht="14.25" spans="1:36">
+    <row r="44" spans="1:36">
       <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
@@ -3700,7 +3549,7 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
     </row>
-    <row r="45" ht="14.25" spans="1:36">
+    <row r="45" spans="1:36">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3746,7 +3595,7 @@
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
     </row>
-    <row r="48" ht="14.25" spans="1:36">
+    <row r="48" spans="1:36">
       <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
@@ -3900,7 +3749,7 @@
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
     </row>
-    <row r="50" ht="14.25" spans="2:36">
+    <row r="50" spans="2:36">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -3937,7 +3786,7 @@
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
     </row>
-    <row r="51" ht="14.25" spans="2:36">
+    <row r="51" spans="2:36">
       <c r="B51" s="10" t="s">
         <v>71</v>
       </c>
@@ -3976,7 +3825,7 @@
       <c r="AI51" s="7"/>
       <c r="AJ51" s="7"/>
     </row>
-    <row r="52" ht="14.25" spans="2:36">
+    <row r="52" spans="2:36">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -4013,7 +3862,7 @@
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
     </row>
-    <row r="53" ht="14.25" spans="2:36">
+    <row r="53" spans="2:36">
       <c r="B53" s="10" t="s">
         <v>72</v>
       </c>
@@ -4052,7 +3901,7 @@
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
     </row>
-    <row r="54" ht="14.25" spans="2:36">
+    <row r="54" spans="2:36">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -4089,7 +3938,7 @@
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
     </row>
-    <row r="55" ht="14.25" spans="2:36">
+    <row r="55" spans="2:36">
       <c r="B55" s="10" t="s">
         <v>73</v>
       </c>
@@ -4128,7 +3977,7 @@
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
     </row>
-    <row r="56" ht="14.25" spans="2:36">
+    <row r="56" spans="2:36">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -4165,7 +4014,7 @@
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
     </row>
-    <row r="57" ht="14.25" spans="2:36">
+    <row r="57" spans="2:36">
       <c r="B57" s="10" t="s">
         <v>74</v>
       </c>
@@ -4204,7 +4053,7 @@
       <c r="AI57" s="7"/>
       <c r="AJ57" s="7"/>
     </row>
-    <row r="58" ht="14.25" spans="2:36">
+    <row r="58" spans="2:36">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -4241,7 +4090,7 @@
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
     </row>
-    <row r="59" ht="14.25" spans="2:36">
+    <row r="59" spans="2:36">
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -4280,7 +4129,7 @@
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
     </row>
-    <row r="60" ht="14.25" spans="2:36">
+    <row r="60" spans="2:36">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -4317,7 +4166,7 @@
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7"/>
     </row>
-    <row r="61" ht="14.25" spans="2:36">
+    <row r="61" spans="2:36">
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -4356,7 +4205,7 @@
       <c r="AI61" s="7"/>
       <c r="AJ61" s="7"/>
     </row>
-    <row r="64" ht="14.25" spans="1:36">
+    <row r="64" spans="1:36">
       <c r="A64" s="2" t="s">
         <v>75</v>
       </c>
@@ -4466,19 +4315,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:36">
+    <row r="65" spans="1:36">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="B65" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -4508,7 +4359,7 @@
       <c r="AI65" s="7"/>
       <c r="AJ65" s="7"/>
     </row>
-    <row r="66" ht="14.25" spans="2:36">
+    <row r="66" spans="2:36">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -4545,19 +4396,19 @@
       <c r="AI66" s="7"/>
       <c r="AJ66" s="7"/>
     </row>
-    <row r="67" ht="14.25" spans="2:36">
-      <c r="B67" s="5" t="s">
-        <v>77</v>
+    <row r="67" spans="2:36">
+      <c r="B67" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -4584,7 +4435,7 @@
       <c r="AI67" s="7"/>
       <c r="AJ67" s="7"/>
     </row>
-    <row r="68" ht="14.25" spans="2:36">
+    <row r="68" spans="2:36">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -4621,9 +4472,12 @@
       <c r="AI68" s="7"/>
       <c r="AJ68" s="7"/>
     </row>
-    <row r="69" ht="14.25" spans="2:36">
-      <c r="B69" s="5" t="s">
-        <v>78</v>
+    <row r="69" spans="1:36">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -4634,9 +4488,9 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -4660,7 +4514,7 @@
       <c r="AI69" s="7"/>
       <c r="AJ69" s="7"/>
     </row>
-    <row r="70" ht="14.25" spans="2:36">
+    <row r="70" spans="2:36">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -4697,9 +4551,9 @@
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7"/>
     </row>
-    <row r="71" ht="14.25" spans="2:36">
-      <c r="B71" s="5" t="s">
-        <v>79</v>
+    <row r="71" spans="2:36">
+      <c r="B71" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -4713,9 +4567,9 @@
       <c r="L71" s="7"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
       <c r="R71" s="9"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -4736,7 +4590,7 @@
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7"/>
     </row>
-    <row r="72" ht="14.25" spans="2:36">
+    <row r="72" spans="2:36">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -4773,9 +4627,12 @@
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
     </row>
-    <row r="73" ht="14.25" spans="2:36">
-      <c r="B73" s="5" t="s">
-        <v>80</v>
+    <row r="73" spans="1:36">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -4792,8 +4649,8 @@
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -4812,7 +4669,7 @@
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7"/>
     </row>
-    <row r="74" ht="14.25" spans="2:36">
+    <row r="74" spans="2:36">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -4849,9 +4706,9 @@
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7"/>
     </row>
-    <row r="75" ht="14.25" spans="2:36">
-      <c r="B75" s="5" t="s">
-        <v>81</v>
+    <row r="75" spans="2:36">
+      <c r="B75" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -4870,9 +4727,9 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
       <c r="W75" s="7"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -4888,7 +4745,7 @@
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7"/>
     </row>
-    <row r="76" ht="14.25" spans="2:36">
+    <row r="76" spans="2:36">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -4925,9 +4782,9 @@
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7"/>
     </row>
-    <row r="77" ht="14.25" spans="2:36">
-      <c r="B77" s="5" t="s">
-        <v>82</v>
+    <row r="77" spans="2:36">
+      <c r="B77" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -4949,14 +4806,14 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
-      <c r="Z77" s="7"/>
-      <c r="AA77" s="7"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="7"/>
-      <c r="AD77" s="9"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="23"/>
       <c r="AE77" s="9"/>
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
@@ -4964,7 +4821,7 @@
       <c r="AI77" s="7"/>
       <c r="AJ77" s="7"/>
     </row>
-    <row r="78" ht="14.25" spans="2:36">
+    <row r="78" spans="2:36">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -5001,10 +4858,8 @@
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7"/>
     </row>
-    <row r="79" ht="14.25" spans="2:36">
-      <c r="B79" s="5" t="s">
-        <v>83</v>
-      </c>
+    <row r="79" spans="2:36">
+      <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -5040,7 +4895,7 @@
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7"/>
     </row>
-    <row r="80" ht="14.25" spans="1:36">
+    <row r="80" spans="1:36">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5078,10 +4933,8 @@
       <c r="AI80" s="7"/>
       <c r="AJ80" s="7"/>
     </row>
-    <row r="81" ht="14.25" spans="2:36">
-      <c r="B81" s="5" t="s">
-        <v>84</v>
-      </c>
+    <row r="81" spans="2:36">
+      <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -5117,7 +4970,7 @@
       <c r="AI81" s="7"/>
       <c r="AJ81" s="7"/>
     </row>
-    <row r="82" ht="14.25" spans="2:36">
+    <row r="82" spans="2:36">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -5154,10 +5007,8 @@
       <c r="AI82" s="7"/>
       <c r="AJ82" s="7"/>
     </row>
-    <row r="83" ht="14.25" spans="2:36">
-      <c r="B83" s="5" t="s">
-        <v>85</v>
-      </c>
+    <row r="83" spans="2:36">
+      <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -5206,7 +5057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92729d07-a194-4303-a957-f4faec539d49}</x14:id>
+          <x14:id>{3a2d203e-0e24-47dc-9a48-38d0bfe4fd23}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5220,7 +5071,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83e784c1-84de-4fe7-8a5d-b2792d762d4c}</x14:id>
+          <x14:id>{7c0721da-d1d1-4087-b1c0-e0b83c511224}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5244,7 +5095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b774ff0a-54a8-4ec2-910a-ae3f22e893cd}</x14:id>
+          <x14:id>{7102a77a-453b-4685-acef-902c7061397b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5268,7 +5119,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7de51bb-55da-4e81-8959-dea696ba15ee}</x14:id>
+          <x14:id>{7f51dfce-17dc-484f-8058-de219acaae54}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5292,7 +5143,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0de94e8-c4ac-4e8f-8b54-e91b3be0d637}</x14:id>
+          <x14:id>{6f29caa5-6e9d-4b9a-9a36-cf515a24653e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5306,7 +5157,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c5b0877-b06b-4905-812c-146eb31be5e9}</x14:id>
+          <x14:id>{fd3630af-e08e-422f-b44a-f0a6c413f1ed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5330,7 +5181,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4bd48f10-b601-495e-8633-c40947ee195c}</x14:id>
+          <x14:id>{3bf342d0-52f8-4cbd-8be9-f5565fabdadf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5354,7 +5205,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8eb95b2a-0862-4235-ac0e-d15731f0c981}</x14:id>
+          <x14:id>{904f76d8-5726-4695-9fda-a2a38ebe8e36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5368,7 +5219,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{032935b1-c526-4d5f-a52b-13d2b43c6c39}</x14:id>
+          <x14:id>{8fd5e120-7951-4d91-9b54-00993c43f043}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5392,7 +5243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a4bc0933-912f-46b5-920a-7a3a21b5bf8d}</x14:id>
+          <x14:id>{f249a662-2bbe-4e88-a9f8-eb321b332074}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5416,7 +5267,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e6ce14bb-ea5e-43e9-9583-f6a2ed054f84}</x14:id>
+          <x14:id>{f4407542-d86a-4607-bb5c-a4765979123a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5430,7 +5281,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2caa10b-451f-4959-aced-b6a5133e4481}</x14:id>
+          <x14:id>{991c39df-f786-46bb-b66e-bb8fea40bd45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5454,7 +5305,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ddb129f-f4fa-4907-8597-7d9cbd74a79b}</x14:id>
+          <x14:id>{605d09ba-f23d-4361-abbd-7775f49ad485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5478,7 +5329,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00237cde-38a9-4fd3-b3e1-d5fe2ec0110a}</x14:id>
+          <x14:id>{a1661710-2496-402d-b594-2519a5163064}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5502,7 +5353,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aa368dd6-c857-4faa-828f-a50092977cab}</x14:id>
+          <x14:id>{7804251a-bdb5-45d2-8214-2b2415b1cc7e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5526,7 +5377,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dfd0ed8-8d30-4e21-8aa8-73504670ad2f}</x14:id>
+          <x14:id>{6198fa42-1397-4b3f-b4b2-c544c071a627}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5550,7 +5401,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cdc9c0f3-5fc3-4d84-b6dd-f63228b7cc98}</x14:id>
+          <x14:id>{9ffdbbd9-602d-41d2-b404-f7fad0f20ff6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5574,7 +5425,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28d1bff1-f1fa-47e4-908d-6efebc6500ed}</x14:id>
+          <x14:id>{df6b4df1-d08c-478e-acb7-a08679bdc945}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5598,7 +5449,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46459036-9eeb-4d31-b8d6-478bbc8189b5}</x14:id>
+          <x14:id>{c61aaa7e-27e7-4bed-9fae-4da493682763}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5622,7 +5473,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c2cfbb8-b434-41dc-ae29-38a3bc504c4f}</x14:id>
+          <x14:id>{f2efa91a-b0bd-48af-83bb-ecf1686ec7cd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5646,7 +5497,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03a96d04-d267-43f8-ad40-89950ff30db6}</x14:id>
+          <x14:id>{7e6d962f-5be2-49f5-a1b4-ea4f4d09c667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5670,7 +5521,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c4207c6-163a-49a9-a609-555b9557df2e}</x14:id>
+          <x14:id>{a50763b7-f26d-4788-87b2-424b81781690}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5694,7 +5545,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04a30f98-d120-427d-9640-cc9f69de03ad}</x14:id>
+          <x14:id>{90e109d1-c10a-42b6-a1d5-63b9ddf300ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5718,7 +5569,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdda54f6-9ea0-4191-b25c-48f790efedc8}</x14:id>
+          <x14:id>{db5bd0c0-2ab9-453b-93ef-281bbb73613d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5742,7 +5593,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ff5e86c-db2d-4968-885a-508a29e92bc6}</x14:id>
+          <x14:id>{ae4446b3-a4ad-4ca1-b354-903417717d8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5766,7 +5617,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f48edd6-0790-446f-ba97-922fdb3ff61b}</x14:id>
+          <x14:id>{e765e453-3529-4137-bf50-d362c01364e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5790,7 +5641,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1e072e0-8d3b-4409-9d64-4f72d39f90b5}</x14:id>
+          <x14:id>{1fb2bdd3-cc60-4fbe-a4c3-22a861860c1e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5814,7 +5665,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04876d7c-e367-40e7-a11d-06998a385649}</x14:id>
+          <x14:id>{7ffad40e-6f4a-43c7-ae14-1facb0e48435}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5838,7 +5689,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a02c860a-8908-4cfd-b2b7-ec80b3bf2438}</x14:id>
+          <x14:id>{6e0c7dcd-f9f9-44e7-bd07-a6b821adf789}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5862,7 +5713,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3cde69bf-e5be-4633-b3af-1e8dcb22e004}</x14:id>
+          <x14:id>{05e8079c-8f4b-4aeb-9de4-58e722845071}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5886,7 +5737,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c839c25-9260-43ff-bdf1-9dc5975ed76f}</x14:id>
+          <x14:id>{a4e971e7-5885-46ec-88f5-dd6fd505198b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5910,7 +5761,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e11934dd-06c5-4060-8a32-d82dd8602917}</x14:id>
+          <x14:id>{0d101da8-2e69-4d52-b8cf-c71a4981dbb7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5934,7 +5785,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d256de9-2fb2-41e1-a5fe-050ef17fe668}</x14:id>
+          <x14:id>{2c05f45c-882e-4d9e-94a3-db1e35ad8b78}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5958,7 +5809,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2399b12-5122-4236-a08d-ebcd3a2b530b}</x14:id>
+          <x14:id>{d7df922b-47d5-4a5f-88d5-c5cc14b0f9e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5982,7 +5833,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29f6eda8-973e-4c7c-a6d3-382f4c4c8059}</x14:id>
+          <x14:id>{ebc2357d-d9ed-444b-a069-fca45d2b0d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6006,7 +5857,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3c1dafc-3ea2-4984-9ca5-232e984b5093}</x14:id>
+          <x14:id>{25daff6f-9d41-42ae-a235-9c27fa22a950}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6030,7 +5881,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c4c9cbd6-beae-4c46-bff2-a07c1ddeaab4}</x14:id>
+          <x14:id>{e3b66484-af84-4d73-8b9d-f27b1ef59eaa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6054,7 +5905,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19135809-cb44-4c2a-8b2f-7e08ebbd5eaf}</x14:id>
+          <x14:id>{e429a906-b88a-4826-8e18-9725518f5972}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6078,7 +5929,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e129a0a4-a1dd-41f2-8ff3-cbda0f3d4391}</x14:id>
+          <x14:id>{0e59b3ee-fb34-4906-8cee-58960341a9e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6102,7 +5953,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3920b48-a70e-4c75-bbd6-7c73b39c2246}</x14:id>
+          <x14:id>{1ff642cd-b7b1-4ef7-a2f7-fdfe686368de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6126,7 +5977,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a67c4d1-210c-465c-8c09-0cea883c0b73}</x14:id>
+          <x14:id>{4fd34741-18c6-4a43-a60b-45e17499ef82}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6150,7 +6001,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc2943bb-c679-493f-87e9-3f7bf8f74ac0}</x14:id>
+          <x14:id>{d09e3cbc-eea8-4eb1-9392-526b596d7a7e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6174,7 +6025,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02463ce3-5796-4a08-aeaa-694d163934f7}</x14:id>
+          <x14:id>{98ad183c-fc77-4b7d-84a2-3c789a748e32}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6198,7 +6049,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dff68a58-4f09-4700-a435-0c71a53ddf35}</x14:id>
+          <x14:id>{e2fd0327-c1bc-470e-8720-e69c190e498d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6222,7 +6073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{313d8e98-c659-4539-adfa-1d59c0b0673f}</x14:id>
+          <x14:id>{629e0d64-28c4-4065-8ad6-d993220267c1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6237,7 +6088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
   <tableParts count="4">
@@ -6250,7 +6101,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{92729d07-a194-4303-a957-f4faec539d49}">
+          <x14:cfRule type="dataBar" id="{3a2d203e-0e24-47dc-9a48-38d0bfe4fd23}">
             <x14:dataBar minLength="10" maxLength="90" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6261,7 +6112,7 @@
           <xm:sqref>D3:E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83e784c1-84de-4fe7-8a5d-b2792d762d4c}">
+          <x14:cfRule type="dataBar" id="{7c0721da-d1d1-4087-b1c0-e0b83c511224}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6272,7 +6123,7 @@
           <xm:sqref>C4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b774ff0a-54a8-4ec2-910a-ae3f22e893cd}">
+          <x14:cfRule type="dataBar" id="{7102a77a-453b-4685-acef-902c7061397b}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6283,7 +6134,7 @@
           <xm:sqref>D4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7de51bb-55da-4e81-8959-dea696ba15ee}">
+          <x14:cfRule type="dataBar" id="{7f51dfce-17dc-484f-8058-de219acaae54}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6294,7 +6145,7 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b0de94e8-c4ac-4e8f-8b54-e91b3be0d637}">
+          <x14:cfRule type="dataBar" id="{6f29caa5-6e9d-4b9a-9a36-cf515a24653e}">
             <x14:dataBar minLength="10" maxLength="90" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6305,7 +6156,7 @@
           <xm:sqref>D26:E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c5b0877-b06b-4905-812c-146eb31be5e9}">
+          <x14:cfRule type="dataBar" id="{fd3630af-e08e-422f-b44a-f0a6c413f1ed}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6316,7 +6167,7 @@
           <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4bd48f10-b601-495e-8633-c40947ee195c}">
+          <x14:cfRule type="dataBar" id="{3bf342d0-52f8-4cbd-8be9-f5565fabdadf}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6327,7 +6178,7 @@
           <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8eb95b2a-0862-4235-ac0e-d15731f0c981}">
+          <x14:cfRule type="dataBar" id="{904f76d8-5726-4695-9fda-a2a38ebe8e36}">
             <x14:dataBar minLength="10" maxLength="90" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6338,7 +6189,7 @@
           <xm:sqref>D49:E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{032935b1-c526-4d5f-a52b-13d2b43c6c39}">
+          <x14:cfRule type="dataBar" id="{8fd5e120-7951-4d91-9b54-00993c43f043}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6349,7 +6200,7 @@
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a4bc0933-912f-46b5-920a-7a3a21b5bf8d}">
+          <x14:cfRule type="dataBar" id="{f249a662-2bbe-4e88-a9f8-eb321b332074}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6360,7 +6211,7 @@
           <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e6ce14bb-ea5e-43e9-9583-f6a2ed054f84}">
+          <x14:cfRule type="dataBar" id="{f4407542-d86a-4607-bb5c-a4765979123a}">
             <x14:dataBar minLength="10" maxLength="90" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6371,7 +6222,7 @@
           <xm:sqref>D65:E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b2caa10b-451f-4959-aced-b6a5133e4481}">
+          <x14:cfRule type="dataBar" id="{991c39df-f786-46bb-b66e-bb8fea40bd45}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6382,7 +6233,7 @@
           <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0ddb129f-f4fa-4907-8597-7d9cbd74a79b}">
+          <x14:cfRule type="dataBar" id="{605d09ba-f23d-4361-abbd-7775f49ad485}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6393,7 +6244,7 @@
           <xm:sqref>E68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{00237cde-38a9-4fd3-b3e1-d5fe2ec0110a}">
+          <x14:cfRule type="dataBar" id="{a1661710-2496-402d-b594-2519a5163064}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6404,7 +6255,7 @@
           <xm:sqref>AH3:AH18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aa368dd6-c857-4faa-828f-a50092977cab}">
+          <x14:cfRule type="dataBar" id="{7804251a-bdb5-45d2-8214-2b2415b1cc7e}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6415,7 +6266,7 @@
           <xm:sqref>AH19:AH20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dfd0ed8-8d30-4e21-8aa8-73504670ad2f}">
+          <x14:cfRule type="dataBar" id="{6198fa42-1397-4b3f-b4b2-c544c071a627}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6426,7 +6277,7 @@
           <xm:sqref>AH21:AH22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cdc9c0f3-5fc3-4d84-b6dd-f63228b7cc98}">
+          <x14:cfRule type="dataBar" id="{9ffdbbd9-602d-41d2-b404-f7fad0f20ff6}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6437,7 +6288,7 @@
           <xm:sqref>AH26:AH41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28d1bff1-f1fa-47e4-908d-6efebc6500ed}">
+          <x14:cfRule type="dataBar" id="{df6b4df1-d08c-478e-acb7-a08679bdc945}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6448,7 +6299,7 @@
           <xm:sqref>AH42:AH45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46459036-9eeb-4d31-b8d6-478bbc8189b5}">
+          <x14:cfRule type="dataBar" id="{c61aaa7e-27e7-4bed-9fae-4da493682763}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6459,7 +6310,7 @@
           <xm:sqref>AH49:AH61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c2cfbb8-b434-41dc-ae29-38a3bc504c4f}">
+          <x14:cfRule type="dataBar" id="{f2efa91a-b0bd-48af-83bb-ecf1686ec7cd}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6470,7 +6321,7 @@
           <xm:sqref>AH65:AH80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03a96d04-d267-43f8-ad40-89950ff30db6}">
+          <x14:cfRule type="dataBar" id="{7e6d962f-5be2-49f5-a1b4-ea4f4d09c667}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6481,7 +6332,7 @@
           <xm:sqref>AH81:AH84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5c4207c6-163a-49a9-a609-555b9557df2e}">
+          <x14:cfRule type="dataBar" id="{a50763b7-f26d-4788-87b2-424b81781690}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6492,7 +6343,7 @@
           <xm:sqref>AI3:AI18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04a30f98-d120-427d-9640-cc9f69de03ad}">
+          <x14:cfRule type="dataBar" id="{90e109d1-c10a-42b6-a1d5-63b9ddf300ce}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6503,7 +6354,7 @@
           <xm:sqref>AI19:AI20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdda54f6-9ea0-4191-b25c-48f790efedc8}">
+          <x14:cfRule type="dataBar" id="{db5bd0c0-2ab9-453b-93ef-281bbb73613d}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6514,7 +6365,7 @@
           <xm:sqref>AI21:AI22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0ff5e86c-db2d-4968-885a-508a29e92bc6}">
+          <x14:cfRule type="dataBar" id="{ae4446b3-a4ad-4ca1-b354-903417717d8b}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6525,7 +6376,7 @@
           <xm:sqref>AI26:AI41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f48edd6-0790-446f-ba97-922fdb3ff61b}">
+          <x14:cfRule type="dataBar" id="{e765e453-3529-4137-bf50-d362c01364e7}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6536,7 +6387,7 @@
           <xm:sqref>AI42:AI45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d1e072e0-8d3b-4409-9d64-4f72d39f90b5}">
+          <x14:cfRule type="dataBar" id="{1fb2bdd3-cc60-4fbe-a4c3-22a861860c1e}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6547,7 +6398,7 @@
           <xm:sqref>AI49:AI61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04876d7c-e367-40e7-a11d-06998a385649}">
+          <x14:cfRule type="dataBar" id="{7ffad40e-6f4a-43c7-ae14-1facb0e48435}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6558,7 +6409,7 @@
           <xm:sqref>AI65:AI80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a02c860a-8908-4cfd-b2b7-ec80b3bf2438}">
+          <x14:cfRule type="dataBar" id="{6e0c7dcd-f9f9-44e7-bd07-a6b821adf789}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6569,7 +6420,7 @@
           <xm:sqref>AI81:AI84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3cde69bf-e5be-4633-b3af-1e8dcb22e004}">
+          <x14:cfRule type="dataBar" id="{05e8079c-8f4b-4aeb-9de4-58e722845071}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6580,7 +6431,7 @@
           <xm:sqref>AJ3:AJ18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c839c25-9260-43ff-bdf1-9dc5975ed76f}">
+          <x14:cfRule type="dataBar" id="{a4e971e7-5885-46ec-88f5-dd6fd505198b}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6591,7 +6442,7 @@
           <xm:sqref>AJ19:AJ20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e11934dd-06c5-4060-8a32-d82dd8602917}">
+          <x14:cfRule type="dataBar" id="{0d101da8-2e69-4d52-b8cf-c71a4981dbb7}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6602,7 +6453,7 @@
           <xm:sqref>AJ21:AJ22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6d256de9-2fb2-41e1-a5fe-050ef17fe668}">
+          <x14:cfRule type="dataBar" id="{2c05f45c-882e-4d9e-94a3-db1e35ad8b78}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6613,7 +6464,7 @@
           <xm:sqref>AJ26:AJ41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e2399b12-5122-4236-a08d-ebcd3a2b530b}">
+          <x14:cfRule type="dataBar" id="{d7df922b-47d5-4a5f-88d5-c5cc14b0f9e7}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6624,7 +6475,7 @@
           <xm:sqref>AJ42:AJ45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29f6eda8-973e-4c7c-a6d3-382f4c4c8059}">
+          <x14:cfRule type="dataBar" id="{ebc2357d-d9ed-444b-a069-fca45d2b0d2c}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6635,7 +6486,7 @@
           <xm:sqref>AJ49:AJ61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f3c1dafc-3ea2-4984-9ca5-232e984b5093}">
+          <x14:cfRule type="dataBar" id="{25daff6f-9d41-42ae-a235-9c27fa22a950}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6646,7 +6497,7 @@
           <xm:sqref>AJ65:AJ80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c4c9cbd6-beae-4c46-bff2-a07c1ddeaab4}">
+          <x14:cfRule type="dataBar" id="{e3b66484-af84-4d73-8b9d-f27b1ef59eaa}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6657,7 +6508,7 @@
           <xm:sqref>AJ81:AJ84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19135809-cb44-4c2a-8b2f-7e08ebbd5eaf}">
+          <x14:cfRule type="dataBar" id="{e429a906-b88a-4826-8e18-9725518f5972}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6668,7 +6519,7 @@
           <xm:sqref>D3:AG3 E4:AG4 D5:AG5 D6 F6:AG6 D7:AG18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e129a0a4-a1dd-41f2-8ff3-cbda0f3d4391}">
+          <x14:cfRule type="dataBar" id="{0e59b3ee-fb34-4906-8cee-58960341a9e7}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6679,7 +6530,7 @@
           <xm:sqref>D19:AG20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3920b48-a70e-4c75-bbd6-7c73b39c2246}">
+          <x14:cfRule type="dataBar" id="{1ff642cd-b7b1-4ef7-a2f7-fdfe686368de}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6690,7 +6541,7 @@
           <xm:sqref>D21:AG22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a67c4d1-210c-465c-8c09-0cea883c0b73}">
+          <x14:cfRule type="dataBar" id="{4fd34741-18c6-4a43-a60b-45e17499ef82}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6701,7 +6552,7 @@
           <xm:sqref>D30:AG41 D28:AG28 E27:AG27 D26:AG26 D29 F29:AG29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bc2943bb-c679-493f-87e9-3f7bf8f74ac0}">
+          <x14:cfRule type="dataBar" id="{d09e3cbc-eea8-4eb1-9392-526b596d7a7e}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6712,7 +6563,7 @@
           <xm:sqref>D42:AG45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02463ce3-5796-4a08-aeaa-694d163934f7}">
+          <x14:cfRule type="dataBar" id="{98ad183c-fc77-4b7d-84a2-3c789a748e32}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6723,7 +6574,7 @@
           <xm:sqref>D53:AG61 E50:AG50 D49:AG49 F52:AG52 D52 D51:AG51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dff68a58-4f09-4700-a435-0c71a53ddf35}">
+          <x14:cfRule type="dataBar" id="{e2fd0327-c1bc-470e-8720-e69c190e498d}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6734,7 +6585,7 @@
           <xm:sqref>D69:AG80 F68:AG68 D68 D65:AG65 E66:AG66 D67:AG67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{313d8e98-c659-4539-adfa-1d59c0b0673f}">
+          <x14:cfRule type="dataBar" id="{629e0d64-28c4-4065-8ad6-d993220267c1}">
             <x14:dataBar minLength="10" maxLength="90">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6759,12 +6610,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -6779,12 +6630,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
